--- a/classfiers/bloated/welm/nearmiss/bloated_welm_tanh_nearmiss_results.xlsx
+++ b/classfiers/bloated/welm/nearmiss/bloated_welm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.6319444444444444</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C3" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.863095238095238</v>
+        <v>0.9300699300699301</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.631578947368421</v>
+        <v>0.4210526315789474</v>
       </c>
       <c r="E4" t="n">
-        <v>0.375</v>
+        <v>0.546875</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.72</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7741935483870968</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6346153846153846</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5473846153846155</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6179487179487181</v>
+        <v>0.2784382284382284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.471630689627294</v>
+        <v>0.339766081871345</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5745421245421245</v>
+        <v>0.6802394133644134</v>
       </c>
     </row>
   </sheetData>
